--- a/medicine/Pharmacie/1777_en_santé_et_médecine/1777_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1777_en_santé_et_médecine/1777_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1777_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1777_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1777 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1777_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1777_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10 avril : en France, édit royal stipulant que les épiciers et toutes autres personnes que les apothicaires ne pourront « fabriquer, vendre et débiter aucuns sels, compositions, ou préparations entrantes dans le corps humain en forme de médicament[1]. » Cette déclaration sépare les apothicaires des épiciers, crée le Collège de pharmacie, limite la formation à 8 ans, remplace les maîtres-apothicaires par des maîtres en pharmacie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10 avril : en France, édit royal stipulant que les épiciers et toutes autres personnes que les apothicaires ne pourront « fabriquer, vendre et débiter aucuns sels, compositions, ou préparations entrantes dans le corps humain en forme de médicament. » Cette déclaration sépare les apothicaires des épiciers, crée le Collège de pharmacie, limite la formation à 8 ans, remplace les maîtres-apothicaires par des maîtres en pharmacie.
 Claude-Louis Berthollet (1748-1822) met au point l'eau de Javel. Une usine est construite dans le village de Javel, près de Paris.</t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1777_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1777_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1777_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1777_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médaille Copley de la Royal Society : John Mudge (1721-1793), médecin britannique et fabricant de miroir de télescopes.</t>
         </is>
@@ -580,7 +598,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1777_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1777_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -598,7 +616,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>8 février : Bernard Courtois (mort en 1838), salpêtrier et chimiste français.
 30 mars : Heinrich Rudolph Schinz (mort en 1861), médecin et zoologiste suisse.
@@ -615,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1777_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1777_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -633,10 +653,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>22 juin : Johann Friedrich Cartheuser (né en 1704), médecin allemand, professeur de chimie et de pathologie à Francfort-sur-l'Oder.
-18 août : Johann Christian Erxleben (né en 1744), médecin et naturaliste allemand[3].
+18 août : Johann Christian Erxleben (né en 1744), médecin et naturaliste allemand.
 6 novembre : Bernard de Jussieu (né en 1699), médecin et botaniste français.
 7 décembre : Albrecht von Haller (né en 1708), anatomiste et physiologiste suisse.</t>
         </is>
